--- a/public/ValueSet-consent-exchange-scope-codes.xlsx
+++ b/public/ValueSet-consent-exchange-scope-codes.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Exclude from Consent Scope Code" r:id="rId5" sheetId="3"/>
+    <sheet name="Exclude from Consent Scope Co" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -25,13 +25,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://mehi-ig.tranquildata.com/ValueSet/consent-exchange-scope-codes</t>
+    <t>http://consent-engine-ig.awatson.mitre.org/ValueSet/consent-exchange-scope-codes</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.4</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T11:26:17-06:00</t>
+    <t>2022-01-16T23:55:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-consent-exchange-scope-codes.xlsx
+++ b/public/ValueSet-consent-exchange-scope-codes.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T23:55:54-06:00</t>
+    <t>2022-01-18T09:56:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-consent-exchange-scope-codes.xlsx
+++ b/public/ValueSet-consent-exchange-scope-codes.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T09:56:03-06:00</t>
+    <t>2022-01-18T10:02:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-consent-exchange-scope-codes.xlsx
+++ b/public/ValueSet-consent-exchange-scope-codes.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:02:13-06:00</t>
+    <t>2022-01-18T10:08:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-consent-exchange-scope-codes.xlsx
+++ b/public/ValueSet-consent-exchange-scope-codes.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://consent-engine-ig.awatson.mitre.org/ValueSet/consent-exchange-scope-codes</t>
+    <t>https://gitlab.mitre.org/awatson/us-state-profiles/ValueSet/consent-exchange-scope-codes</t>
   </si>
   <si>
     <t>Version</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:08:08-06:00</t>
+    <t>2022-02-02T16:42:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-consent-exchange-scope-codes.xlsx
+++ b/public/ValueSet-consent-exchange-scope-codes.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T10:19:56-05:00</t>
+    <t>2022-07-04T11:58:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/public/ValueSet-consent-exchange-scope-codes.xlsx
+++ b/public/ValueSet-consent-exchange-scope-codes.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:58:27-05:00</t>
+    <t>2022-10-31T09:22:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
